--- a/model/Model.xlsx
+++ b/model/Model.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="KPI_History" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,15 +11,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>yoy_growth_%</t>
+  </si>
+  <si>
+    <t>gross_margin_%</t>
+  </si>
+  <si>
+    <t>s&amp;m_%rev</t>
+  </si>
+  <si>
+    <t>r&amp;d_%rev</t>
+  </si>
+  <si>
+    <t>g&amp;a_%rev</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>nrr_%</t>
+  </si>
+  <si>
+    <t>churn_%</t>
+  </si>
+  <si>
+    <t>arpu</t>
+  </si>
+  <si>
+    <t>cfo</t>
+  </si>
+  <si>
+    <t>capex</t>
+  </si>
+  <si>
+    <t>fcf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -38,20 +87,99 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="KPI_History-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N1" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="14">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+  </tableColumns>
+  <tableStyleInfo name="KPI_History-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -257,7 +385,67 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>